--- a/homework/100325/22.xlsx
+++ b/homework/100325/22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrHir\PycharmProjects\ege_info_tutor\homework\100325\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D775E2C-7EE1-4386-BDA6-400A842A7D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DB5DC-89EA-4E4C-BF4C-EF5A19E245DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
   </bookViews>
@@ -45,12 +45,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -145,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -156,6 +162,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -470,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A69A1-A0AE-4177-A121-45F2207588E7}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +490,7 @@
     <col min="1" max="15" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>-20</v>
       </c>
@@ -528,7 +537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>-9</v>
       </c>
@@ -575,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>13</v>
       </c>
@@ -622,7 +631,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>-8</v>
       </c>
@@ -669,7 +678,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>16</v>
       </c>
@@ -716,7 +725,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>-20</v>
       </c>
@@ -763,7 +772,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>21</v>
       </c>
@@ -810,7 +819,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>-4</v>
       </c>
@@ -857,7 +866,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>20</v>
       </c>
@@ -904,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -951,7 +960,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>-24</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>-10</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>-1</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>6</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>20</v>
       </c>
@@ -1186,935 +1195,1181 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f>A1</f>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <f t="shared" ref="P16:AD16" si="0">MIN(MIN(P2:P15), MIN(B16:O16)) + A1</f>
         <v>-20</v>
       </c>
-      <c r="B19" s="2">
-        <f>A19+B1</f>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:O19" si="0">B19+C1</f>
-        <v>-4</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="R16" s="2">
         <f t="shared" si="0"/>
-        <v>-21</v>
-      </c>
-      <c r="E19" s="2">
+        <v>-12</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>-37</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+      <c r="U16" s="2">
         <f t="shared" si="0"/>
         <v>-34</v>
       </c>
-      <c r="F19" s="2">
+      <c r="V16" s="2">
         <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="G19" s="2">
+        <v>-49</v>
+      </c>
+      <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>-17</v>
-      </c>
-      <c r="H19" s="2">
+        <v>-27</v>
+      </c>
+      <c r="X16" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I19" s="2">
+        <v>-37</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J19" s="2">
+        <v>-44</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K19" s="2">
+        <v>-71</v>
+      </c>
+      <c r="AA16" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L19" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AB16" s="2">
         <f t="shared" si="0"/>
+        <v>-116</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="0"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P17" s="4">
+        <f t="shared" ref="P17:AD17" si="1">MIN(MIN(P3:P16), MIN(B17:O17)) + A2</f>
+        <v>-29</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
-        <v>-60</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="0"/>
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f>A19+A2</f>
-        <v>-29</v>
-      </c>
-      <c r="B20" s="5">
-        <f>MIN(B19+B2,A20+B2)</f>
-        <v>-25</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" ref="C20:N20" si="1">MIN(C19+C2,B20+C2)</f>
-        <v>-55</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="R17" s="5">
         <f t="shared" si="1"/>
-        <v>-71</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="1"/>
-        <v>-63</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="1"/>
-        <v>-58</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="1"/>
-        <v>-66</v>
-      </c>
-      <c r="H20" s="5">
+        <v>-59</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" si="1"/>
         <v>-75</v>
       </c>
-      <c r="I20" s="5">
+      <c r="T17" s="5">
         <f t="shared" si="1"/>
-        <v>-104</v>
-      </c>
-      <c r="J20" s="5">
+        <v>-67</v>
+      </c>
+      <c r="U17" s="5">
         <f t="shared" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="K20" s="5">
+        <v>-70</v>
+      </c>
+      <c r="V17" s="5">
         <f t="shared" si="1"/>
-        <v>-91</v>
-      </c>
-      <c r="L20" s="5">
+        <v>-83</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="1"/>
+        <v>-121</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="1"/>
+        <v>-119</v>
+      </c>
+      <c r="Z17" s="5">
         <f t="shared" si="1"/>
         <v>-110</v>
       </c>
-      <c r="M20" s="5">
+      <c r="AA17" s="5">
         <f t="shared" si="1"/>
-        <v>-120</v>
-      </c>
-      <c r="N20" s="5">
+        <v>-140</v>
+      </c>
+      <c r="AB17" s="5">
         <f t="shared" si="1"/>
-        <v>-145</v>
-      </c>
-      <c r="O20" s="5">
-        <f>MIN(O19+O2,N20+O2)</f>
+        <v>-150</v>
+      </c>
+      <c r="AC17" s="5">
+        <f t="shared" si="1"/>
+        <v>-175</v>
+      </c>
+      <c r="AD17" s="6">
+        <f t="shared" si="1"/>
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="5">
+        <f t="shared" ref="P18:AD18" si="2">MIN(MIN(P4:P17), MIN(B18:O18)) + A3</f>
+        <v>-16</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="2"/>
+        <v>-26</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="2"/>
+        <v>-87</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="2"/>
+        <v>-104</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="2"/>
+        <v>-126</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="2"/>
+        <v>-128</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="2"/>
+        <v>-104</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="2"/>
+        <v>-126</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="2"/>
+        <v>-102</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="5">
+        <f t="shared" si="2"/>
+        <v>-118</v>
+      </c>
+      <c r="AA18" s="5">
+        <f t="shared" si="2"/>
+        <v>-121</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="2"/>
+        <v>-124</v>
+      </c>
+      <c r="AC18" s="5">
+        <f t="shared" si="2"/>
+        <v>-151</v>
+      </c>
+      <c r="AD18" s="6">
+        <f t="shared" si="2"/>
+        <v>-173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="5">
+        <f t="shared" ref="P19:AD19" si="3">MIN(MIN(P5:P18), MIN(B19:O19)) + A4</f>
+        <v>-37</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="3"/>
+        <v>-103</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="3"/>
+        <v>-113</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="3"/>
+        <v>-119</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="3"/>
+        <v>-127</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="3"/>
         <v>-125</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <f t="shared" ref="A21:A33" si="2">A20+A3</f>
-        <v>-16</v>
-      </c>
-      <c r="B21" s="5">
-        <f t="shared" ref="B21:B33" si="3">MIN(B20+B3,A21+B3)</f>
-        <v>-26</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:C33" si="4">MIN(C20+C3,B21+C3)</f>
-        <v>-83</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:D33" si="5">MIN(D20+D3,C21+D3)</f>
-        <v>-100</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" ref="E21:E33" si="6">MIN(E20+E3,D21+E3)</f>
-        <v>-122</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ref="F21:F33" si="7">MIN(F20+F3,E21+F3)</f>
-        <v>-124</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" ref="G21:G33" si="8">MIN(G20+G3,F21+G3)</f>
-        <v>-100</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" ref="H21:H33" si="9">MIN(H20+H3,G21+H3)</f>
-        <v>-98</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" ref="I21:I33" si="10">MIN(I20+I3,H21+I3)</f>
-        <v>-78</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" ref="J21:J33" si="11">MIN(J20+J3,I21+J3)</f>
-        <v>-74</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" ref="K21:K33" si="12">MIN(K20+K3,J21+K3)</f>
-        <v>-81</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" ref="L21:L33" si="13">MIN(L20+L3,K21+L3)</f>
-        <v>-91</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" ref="M21:M33" si="14">MIN(M20+M3,L21+M3)</f>
+      <c r="W19" s="5">
+        <f t="shared" si="3"/>
+        <v>-136</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="3"/>
+        <v>-108</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="3"/>
+        <v>-149</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" si="3"/>
+        <v>-123</v>
+      </c>
+      <c r="AA19" s="5">
+        <f t="shared" si="3"/>
+        <v>-119</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" si="3"/>
+        <v>-147</v>
+      </c>
+      <c r="AC19" s="5">
+        <f t="shared" si="3"/>
+        <v>-157</v>
+      </c>
+      <c r="AD19" s="6">
+        <f t="shared" si="3"/>
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="5">
+        <f t="shared" ref="P20:AD20" si="4">MIN(MIN(P6:P19), MIN(B20:O20)) + A5</f>
+        <v>-21</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="4"/>
         <v>-94</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" ref="N21:O33" si="15">MIN(N20+N3,M21+N3)</f>
-        <v>-121</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="15"/>
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="B22" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="S20" s="5">
         <f t="shared" si="4"/>
-        <v>-99</v>
-      </c>
-      <c r="D22" s="5">
+        <v>-131</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="4"/>
+        <v>-146</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="4"/>
+        <v>-165</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="4"/>
+        <v>-153</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="4"/>
+        <v>-162</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="4"/>
+        <v>-191</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="4"/>
+        <v>-168</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" si="4"/>
+        <v>-195</v>
+      </c>
+      <c r="AA20" s="5">
+        <f t="shared" si="4"/>
+        <v>-174</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" si="4"/>
+        <v>-194</v>
+      </c>
+      <c r="AC20" s="5">
+        <f t="shared" si="4"/>
+        <v>-190</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="4"/>
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="4">
+        <f t="shared" ref="P21:AD21" si="5">MIN(MIN(P7:P20), MIN(B21:O21)) + A6</f>
+        <v>-57</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="5"/>
+        <v>-75</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="5"/>
+        <v>-123</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="5"/>
+        <v>-126</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="5"/>
+        <v>-136</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="5"/>
+        <v>-186</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="5"/>
+        <v>-163</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" si="5"/>
+        <v>-157</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="5"/>
+        <v>-166</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="5"/>
+        <v>-206</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" si="5"/>
+        <v>-219</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" si="5"/>
+        <v>-233</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" si="5"/>
+        <v>-212</v>
+      </c>
+      <c r="AC21" s="5">
+        <f t="shared" si="5"/>
+        <v>-229</v>
+      </c>
+      <c r="AD21" s="6">
+        <f t="shared" si="5"/>
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="4">
+        <f t="shared" ref="P22:AD22" si="6">MIN(MIN(P8:P21), MIN(B22:O22)) + A7</f>
+        <v>-36</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="6"/>
+        <v>-85</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="6"/>
+        <v>-128</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="6"/>
+        <v>-111</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="6"/>
+        <v>-159</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="6"/>
+        <v>-205</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="6"/>
+        <v>-198</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="6"/>
+        <v>-204</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="6"/>
+        <v>-213</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="6"/>
+        <v>-212</v>
+      </c>
+      <c r="Z22" s="5">
+        <f t="shared" si="6"/>
+        <v>-231</v>
+      </c>
+      <c r="AA22" s="5">
+        <f t="shared" si="6"/>
+        <v>-242</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="6"/>
+        <v>-236</v>
+      </c>
+      <c r="AC22" s="5">
+        <f t="shared" si="6"/>
+        <v>-229</v>
+      </c>
+      <c r="AD22" s="6">
+        <f t="shared" si="6"/>
+        <v>-257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="4">
+        <f t="shared" ref="P23:AD23" si="7">MIN(MIN(P9:P22), MIN(B23:O23)) + A8</f>
+        <v>-61</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="7"/>
+        <v>-65</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="7"/>
+        <v>-112</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="7"/>
         <v>-109</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="6"/>
-        <v>-115</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="T23" s="5">
         <f t="shared" si="7"/>
-        <v>-123</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="8"/>
-        <v>-121</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="9"/>
-        <v>-130</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="10"/>
-        <v>-102</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="11"/>
-        <v>-115</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="12"/>
-        <v>-89</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="13"/>
-        <v>-61</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="14"/>
-        <v>-91</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="15"/>
-        <v>-103</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" ref="O22:O33" si="16">MIN(O21+O4,N22+O4)</f>
-        <v>-163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="B23" s="5">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="4"/>
-        <v>-90</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="5"/>
-        <v>-127</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="6"/>
-        <v>-142</v>
-      </c>
-      <c r="F23" s="5">
+        <v>-132</v>
+      </c>
+      <c r="U23" s="5">
         <f t="shared" si="7"/>
-        <v>-161</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="8"/>
-        <v>-149</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="9"/>
-        <v>-146</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="10"/>
-        <v>-172</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="11"/>
-        <v>-149</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="12"/>
-        <v>-153</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="13"/>
-        <v>-132</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="14"/>
-        <v>-131</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="15"/>
-        <v>-126</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="16"/>
-        <v>-176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <f t="shared" si="2"/>
-        <v>-28</v>
-      </c>
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>-46</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" si="4"/>
-        <v>-110</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" si="5"/>
-        <v>-122</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="6"/>
-        <v>-132</v>
-      </c>
-      <c r="F24" s="5">
+        <v>-178</v>
+      </c>
+      <c r="V23" s="5">
         <f t="shared" si="7"/>
-        <v>-182</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="8"/>
-        <v>-159</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="9"/>
-        <v>-130</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="10"/>
-        <v>-147</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="11"/>
-        <v>-169</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="12"/>
-        <v>-182</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="13"/>
-        <v>-196</v>
-      </c>
-      <c r="M24" s="5">
-        <f t="shared" si="14"/>
-        <v>-175</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="15"/>
-        <v>-171</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="16"/>
-        <v>-184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>-56</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="4"/>
-        <v>-115</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="5"/>
-        <v>-102</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="6"/>
-        <v>-145</v>
-      </c>
-      <c r="F25" s="5">
+        <v>-181</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="7"/>
+        <v>-214</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="7"/>
+        <v>-211</v>
+      </c>
+      <c r="Y23" s="5">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+      <c r="Z23" s="5">
         <f t="shared" si="7"/>
         <v>-201</v>
       </c>
-      <c r="G25" s="5">
+      <c r="AA23" s="5">
+        <f t="shared" si="7"/>
+        <v>-247</v>
+      </c>
+      <c r="AB23" s="5">
+        <f t="shared" si="7"/>
+        <v>-275</v>
+      </c>
+      <c r="AC23" s="5">
+        <f t="shared" si="7"/>
+        <v>-256</v>
+      </c>
+      <c r="AD23" s="6">
+        <f t="shared" si="7"/>
+        <v>-298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24:AD24" si="8">MIN(MIN(P10:P23), MIN(B24:O24)) + A9</f>
+        <v>-41</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="8"/>
-        <v>-194</v>
-      </c>
-      <c r="H25" s="5">
+        <v>-59</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="8"/>
+        <v>-143</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="8"/>
+        <v>-118</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="8"/>
+        <v>-183</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="8"/>
+        <v>-195</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="8"/>
+        <v>-172</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" si="8"/>
+        <v>-234</v>
+      </c>
+      <c r="X24" s="5">
+        <f t="shared" si="8"/>
+        <v>-217</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" si="8"/>
+        <v>-257</v>
+      </c>
+      <c r="Z24" s="5">
+        <f t="shared" si="8"/>
+        <v>-249</v>
+      </c>
+      <c r="AA24" s="5">
+        <f t="shared" si="8"/>
+        <v>-279</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" si="8"/>
+        <v>-293</v>
+      </c>
+      <c r="AC24" s="5">
+        <f t="shared" si="8"/>
+        <v>-282</v>
+      </c>
+      <c r="AD24" s="6">
+        <f t="shared" si="8"/>
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25:AD25" si="9">MIN(MIN(P11:P24), MIN(B25:O25)) + A10</f>
+        <v>-34</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="9"/>
-        <v>-193</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="10"/>
-        <v>-201</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="11"/>
-        <v>-200</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="12"/>
-        <v>-212</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="13"/>
-        <v>-221</v>
-      </c>
-      <c r="M25" s="5">
-        <f t="shared" si="14"/>
-        <v>-215</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="15"/>
-        <v>-202</v>
-      </c>
-      <c r="O25" s="5">
-        <f t="shared" si="16"/>
-        <v>-217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>-36</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="4"/>
-        <v>-99</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="6"/>
-        <v>-118</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="7"/>
-        <v>-174</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="8"/>
-        <v>-177</v>
-      </c>
-      <c r="H26" s="5">
+        <v>-77</v>
+      </c>
+      <c r="R25" s="5">
         <f t="shared" si="9"/>
-        <v>-203</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="10"/>
-        <v>-200</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="11"/>
-        <v>-178</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="12"/>
+        <v>-141</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="9"/>
+        <v>-167</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="9"/>
+        <v>-184</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="9"/>
         <v>-182</v>
       </c>
-      <c r="L26" s="5">
-        <f t="shared" si="13"/>
-        <v>-226</v>
-      </c>
-      <c r="M26" s="5">
-        <f t="shared" si="14"/>
-        <v>-254</v>
-      </c>
-      <c r="N26" s="5">
-        <f t="shared" si="15"/>
-        <v>-235</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="16"/>
-        <v>-258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="4"/>
-        <v>-114</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="5"/>
-        <v>-89</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="6"/>
-        <v>-142</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="7"/>
-        <v>-164</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="8"/>
-        <v>-151</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="V25" s="5">
+        <f t="shared" si="9"/>
+        <v>-199</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="9"/>
+        <v>-250</v>
+      </c>
+      <c r="X25" s="5">
         <f t="shared" si="9"/>
         <v>-223</v>
       </c>
-      <c r="I27" s="5">
+      <c r="Y25" s="5">
+        <f t="shared" si="9"/>
+        <v>-258</v>
+      </c>
+      <c r="Z25" s="5">
+        <f t="shared" si="9"/>
+        <v>-265</v>
+      </c>
+      <c r="AA25" s="5">
+        <f t="shared" si="9"/>
+        <v>-266</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" si="9"/>
+        <v>-303</v>
+      </c>
+      <c r="AC25" s="5">
+        <f t="shared" si="9"/>
+        <v>-322</v>
+      </c>
+      <c r="AD25" s="6">
+        <f t="shared" si="9"/>
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:AD26" si="10">MIN(MIN(P12:P25), MIN(B26:O26)) + A11</f>
+        <v>-85</v>
+      </c>
+      <c r="Q26" s="5">
         <f t="shared" si="10"/>
-        <v>-206</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="11"/>
-        <v>-229</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="12"/>
-        <v>-221</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="13"/>
-        <v>-248</v>
-      </c>
-      <c r="M27" s="5">
-        <f t="shared" si="14"/>
-        <v>-268</v>
-      </c>
-      <c r="N27" s="5">
-        <f t="shared" si="15"/>
-        <v>-257</v>
-      </c>
-      <c r="O27" s="5">
-        <f t="shared" si="16"/>
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="4"/>
-        <v>-112</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="5"/>
-        <v>-138</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="6"/>
-        <v>-143</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="7"/>
-        <v>-141</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="8"/>
-        <v>-152</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="9"/>
-        <v>-239</v>
-      </c>
-      <c r="I28" s="5">
+        <v>-101</v>
+      </c>
+      <c r="R26" s="5">
         <f t="shared" si="10"/>
-        <v>-212</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="11"/>
-        <v>-230</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="12"/>
-        <v>-237</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="13"/>
-        <v>-235</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="14"/>
-        <v>-278</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="15"/>
-        <v>-297</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" si="16"/>
-        <v>-325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B29" s="5">
-        <f t="shared" si="3"/>
-        <v>-18</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="4"/>
-        <v>-111</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="5"/>
-        <v>-138</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="6"/>
-        <v>-140</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="7"/>
-        <v>-159</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="8"/>
-        <v>-129</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="9"/>
-        <v>-233</v>
-      </c>
-      <c r="I29" s="5">
+        <v>-142</v>
+      </c>
+      <c r="S26" s="5">
         <f t="shared" si="10"/>
-        <v>-250</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="11"/>
-        <v>-269</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="12"/>
-        <v>-258</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="13"/>
-        <v>-264</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="14"/>
-        <v>-251</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="15"/>
-        <v>-307</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" si="16"/>
-        <v>-325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B30" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="4"/>
-        <v>-128</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="5"/>
-        <v>-108</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="6"/>
-        <v>-139</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="7"/>
-        <v>-139</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="8"/>
-        <v>-118</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="9"/>
-        <v>-261</v>
-      </c>
-      <c r="I30" s="5">
+        <v>-167</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="10"/>
+        <v>-181</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="10"/>
+        <v>-223</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="10"/>
+        <v>-193</v>
+      </c>
+      <c r="W26" s="5">
         <f t="shared" si="10"/>
         <v>-244</v>
       </c>
-      <c r="J30" s="5">
+      <c r="X26" s="5">
+        <f t="shared" si="10"/>
+        <v>-261</v>
+      </c>
+      <c r="Y26" s="5">
+        <f t="shared" si="10"/>
+        <v>-280</v>
+      </c>
+      <c r="Z26" s="5">
+        <f t="shared" si="10"/>
+        <v>-269</v>
+      </c>
+      <c r="AA26" s="5">
+        <f t="shared" si="10"/>
+        <v>-286</v>
+      </c>
+      <c r="AB26" s="5">
+        <f t="shared" si="10"/>
+        <v>-276</v>
+      </c>
+      <c r="AC26" s="5">
+        <f t="shared" si="10"/>
+        <v>-332</v>
+      </c>
+      <c r="AD26" s="6">
+        <f t="shared" si="10"/>
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="4">
+        <f t="shared" ref="P27:AD27" si="11">MIN(MIN(P13:P26), MIN(B27:O27)) + A12</f>
+        <v>-95</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="11"/>
-        <v>-281</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="12"/>
-        <v>-297</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="13"/>
-        <v>-294</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="14"/>
-        <v>-305</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="15"/>
-        <v>-296</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="16"/>
-        <v>-348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B31" s="5">
-        <f t="shared" si="3"/>
-        <v>-11</v>
-      </c>
-      <c r="C31" s="5">
-        <f t="shared" si="4"/>
-        <v>-115</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="5"/>
-        <v>-96</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="6"/>
-        <v>-114</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="7"/>
-        <v>-134</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="8"/>
-        <v>-156</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="9"/>
-        <v>-268</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="10"/>
-        <v>-294</v>
-      </c>
-      <c r="J31" s="5">
+        <v>-73</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="11"/>
+        <v>-160</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="11"/>
+        <v>-137</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="11"/>
+        <v>-183</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="11"/>
+        <v>-203</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="11"/>
+        <v>-182</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="11"/>
+        <v>-278</v>
+      </c>
+      <c r="X27" s="5">
+        <f t="shared" si="11"/>
+        <v>-261</v>
+      </c>
+      <c r="Y27" s="5">
+        <f t="shared" si="11"/>
+        <v>-292</v>
+      </c>
+      <c r="Z27" s="5">
+        <f t="shared" si="11"/>
+        <v>-308</v>
+      </c>
+      <c r="AA27" s="5">
         <f t="shared" si="11"/>
         <v>-305</v>
       </c>
-      <c r="K31" s="5">
+      <c r="AB27" s="5">
+        <f t="shared" si="11"/>
+        <v>-319</v>
+      </c>
+      <c r="AC27" s="5">
+        <f t="shared" si="11"/>
+        <v>-321</v>
+      </c>
+      <c r="AD27" s="6">
+        <f t="shared" si="11"/>
+        <v>-373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="4">
+        <f t="shared" ref="P28:AD28" si="12">MIN(MIN(P14:P27), MIN(B28:O28)) + A13</f>
+        <v>-96</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="12"/>
-        <v>-306</v>
-      </c>
-      <c r="L31" s="5">
+        <v>-113</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="12"/>
+        <v>-147</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="12"/>
+        <v>-148</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="12"/>
+        <v>-159</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="12"/>
+        <v>-218</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="12"/>
+        <v>-240</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="12"/>
+        <v>-285</v>
+      </c>
+      <c r="X28" s="5">
+        <f t="shared" si="12"/>
+        <v>-311</v>
+      </c>
+      <c r="Y28" s="5">
+        <f t="shared" si="12"/>
+        <v>-322</v>
+      </c>
+      <c r="Z28" s="5">
+        <f t="shared" si="12"/>
+        <v>-323</v>
+      </c>
+      <c r="AA28" s="5">
+        <f t="shared" si="12"/>
+        <v>-312</v>
+      </c>
+      <c r="AB28" s="5">
+        <f t="shared" si="12"/>
+        <v>-321</v>
+      </c>
+      <c r="AC28" s="5">
+        <f t="shared" si="12"/>
+        <v>-308</v>
+      </c>
+      <c r="AD28" s="6">
+        <f t="shared" si="12"/>
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="4">
+        <f t="shared" ref="P29:AD29" si="13">MIN(MIN(P15:P28), MIN(B29:O29)) + A14</f>
+        <v>-90</v>
+      </c>
+      <c r="Q29" s="5">
         <f t="shared" si="13"/>
-        <v>-295</v>
-      </c>
-      <c r="M31" s="5">
+        <v>-124</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="13"/>
+        <v>-181</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="13"/>
+        <v>-200</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="13"/>
+        <v>-204</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="13"/>
+        <v>-209</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="13"/>
+        <v>-262</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="13"/>
+        <v>-289</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="shared" si="13"/>
+        <v>-312</v>
+      </c>
+      <c r="Y29" s="5">
+        <f t="shared" si="13"/>
+        <v>-304</v>
+      </c>
+      <c r="Z29" s="5">
+        <f t="shared" si="13"/>
+        <v>-353</v>
+      </c>
+      <c r="AA29" s="5">
+        <f t="shared" si="13"/>
+        <v>-353</v>
+      </c>
+      <c r="AB29" s="5">
+        <f t="shared" si="13"/>
+        <v>-366</v>
+      </c>
+      <c r="AC29" s="5">
+        <f t="shared" si="13"/>
+        <v>-348</v>
+      </c>
+      <c r="AD29" s="6">
+        <f t="shared" si="13"/>
+        <v>-388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="7">
+        <f t="shared" ref="P30:AC30" si="14">MIN(MIN(P16:P29), MIN(B30:O30)) + A15</f>
+        <v>-76</v>
+      </c>
+      <c r="Q30" s="8">
         <f t="shared" si="14"/>
-        <v>-303</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="15"/>
-        <v>-279</v>
-      </c>
-      <c r="O31" s="5">
-        <f t="shared" si="16"/>
-        <v>-341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B32" s="5">
-        <f t="shared" si="3"/>
-        <v>-22</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" si="4"/>
-        <v>-136</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="5"/>
-        <v>-155</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="6"/>
-        <v>-159</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="7"/>
-        <v>-145</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="8"/>
-        <v>-178</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="9"/>
-        <v>-272</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="10"/>
-        <v>-295</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="11"/>
-        <v>-287</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="12"/>
-        <v>-336</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="13"/>
-        <v>-336</v>
-      </c>
-      <c r="M32" s="5">
+        <v>-97</v>
+      </c>
+      <c r="R30" s="8">
         <f t="shared" si="14"/>
-        <v>-349</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="15"/>
-        <v>-331</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="16"/>
-        <v>-356</v>
-      </c>
+        <v>-184</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="14"/>
+        <v>-180</v>
+      </c>
+      <c r="T30" s="8">
+        <f t="shared" si="14"/>
+        <v>-177</v>
+      </c>
+      <c r="U30" s="8">
+        <f t="shared" si="14"/>
+        <v>-197</v>
+      </c>
+      <c r="V30" s="8">
+        <f t="shared" si="14"/>
+        <v>-264</v>
+      </c>
+      <c r="W30" s="8">
+        <f t="shared" si="14"/>
+        <v>-318</v>
+      </c>
+      <c r="X30" s="8">
+        <f t="shared" si="14"/>
+        <v>-293</v>
+      </c>
+      <c r="Y30" s="8">
+        <f t="shared" si="14"/>
+        <v>-327</v>
+      </c>
+      <c r="Z30" s="8">
+        <f t="shared" si="14"/>
+        <v>-343</v>
+      </c>
+      <c r="AA30" s="8">
+        <f t="shared" si="14"/>
+        <v>-382</v>
+      </c>
+      <c r="AB30" s="8">
+        <f t="shared" si="14"/>
+        <v>-370</v>
+      </c>
+      <c r="AC30" s="8">
+        <f t="shared" si="14"/>
+        <v>-409</v>
+      </c>
+      <c r="AD30" s="10">
+        <f>MIN(MIN(AD16:AD29), MIN(P30:AC30)) + O15</f>
+        <v>-392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="B33" s="5">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="4"/>
-        <v>-139</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="5"/>
-        <v>-135</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="6"/>
-        <v>-132</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="7"/>
-        <v>-119</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="8"/>
-        <v>-180</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="9"/>
-        <v>-301</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="10"/>
-        <v>-276</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="11"/>
-        <v>-292</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" si="12"/>
-        <v>-326</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="13"/>
-        <v>-365</v>
-      </c>
-      <c r="M33" s="5">
-        <f t="shared" si="14"/>
-        <v>-353</v>
-      </c>
-      <c r="N33" s="5">
-        <f t="shared" si="15"/>
-        <v>-380</v>
-      </c>
-      <c r="O33" s="5">
-        <f t="shared" si="16"/>
-        <v>-363</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
